--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H2">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I2">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J2">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N2">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q2">
-        <v>6.151683218456778</v>
+        <v>1.016636757541667</v>
       </c>
       <c r="R2">
-        <v>6.151683218456778</v>
+        <v>9.149730817875</v>
       </c>
       <c r="S2">
-        <v>0.03357145233960731</v>
+        <v>0.00463488809750359</v>
       </c>
       <c r="T2">
-        <v>0.03357145233960731</v>
+        <v>0.004634888097503592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H3">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I3">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J3">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N3">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q3">
-        <v>110.7847202702059</v>
+        <v>16.97024609917055</v>
       </c>
       <c r="R3">
-        <v>110.7847202702059</v>
+        <v>152.732214892535</v>
       </c>
       <c r="S3">
-        <v>0.6045831400013068</v>
+        <v>0.07736803836106493</v>
       </c>
       <c r="T3">
-        <v>0.6045831400013068</v>
+        <v>0.07736803836106497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H4">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I4">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J4">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N4">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q4">
-        <v>0.7285610186786691</v>
+        <v>0.1144917845916667</v>
       </c>
       <c r="R4">
-        <v>0.7285610186786691</v>
+        <v>1.030426061325</v>
       </c>
       <c r="S4">
-        <v>0.003975960829986054</v>
+        <v>0.000521972676798588</v>
       </c>
       <c r="T4">
-        <v>0.003975960829986054</v>
+        <v>0.0005219726767985882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H5">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I5">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J5">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N5">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O5">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P5">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q5">
-        <v>0.6325648450745904</v>
+        <v>0.1077204215355555</v>
       </c>
       <c r="R5">
-        <v>0.6325648450745904</v>
+        <v>0.9694837938199999</v>
       </c>
       <c r="S5">
-        <v>0.003452082916821589</v>
+        <v>0.0004911017587446942</v>
       </c>
       <c r="T5">
-        <v>0.003452082916821589</v>
+        <v>0.0004911017587446944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H6">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I6">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J6">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N6">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q6">
-        <v>8.995283769952012</v>
+        <v>1.483880581151111</v>
       </c>
       <c r="R6">
-        <v>8.995283769952012</v>
+        <v>13.35492523036</v>
       </c>
       <c r="S6">
-        <v>0.04908977423579746</v>
+        <v>0.006765071587933527</v>
       </c>
       <c r="T6">
-        <v>0.04908977423579746</v>
+        <v>0.006765071587933529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H7">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I7">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J7">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N7">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q7">
-        <v>0.7846682984241118</v>
+        <v>6.681325675658333</v>
       </c>
       <c r="R7">
-        <v>0.7846682984241118</v>
+        <v>60.131931080925</v>
       </c>
       <c r="S7">
-        <v>0.004282153915843889</v>
+        <v>0.03046043399467067</v>
       </c>
       <c r="T7">
-        <v>0.004282153915843889</v>
+        <v>0.03046043399467068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H8">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I8">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J8">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N8">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q8">
-        <v>14.13097112754464</v>
+        <v>111.5282721616348</v>
       </c>
       <c r="R8">
-        <v>14.13097112754464</v>
+        <v>1003.754449454713</v>
       </c>
       <c r="S8">
-        <v>0.07711665358473059</v>
+        <v>0.5084619037649897</v>
       </c>
       <c r="T8">
-        <v>0.07711665358473059</v>
+        <v>0.5084619037649899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H9">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I9">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J9">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N9">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q9">
-        <v>0.09293045732744039</v>
+        <v>0.7524387588483333</v>
       </c>
       <c r="R9">
-        <v>0.09293045732744039</v>
+        <v>6.771948829635001</v>
       </c>
       <c r="S9">
-        <v>0.0005071474437607203</v>
+        <v>0.003430398735453535</v>
       </c>
       <c r="T9">
-        <v>0.0005071474437607203</v>
+        <v>0.003430398735453536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H10">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I10">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J10">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N10">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O10">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P10">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q10">
-        <v>0.08068581606061745</v>
+        <v>0.7079374347417777</v>
       </c>
       <c r="R10">
-        <v>0.08068581606061745</v>
+        <v>6.371436912676</v>
       </c>
       <c r="S10">
-        <v>0.0004403250187256651</v>
+        <v>0.003227515398908258</v>
       </c>
       <c r="T10">
-        <v>0.0004403250187256651</v>
+        <v>0.00322751539890826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H11">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I11">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J11">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N11">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q11">
-        <v>1.147379303998189</v>
+        <v>9.752046985227555</v>
       </c>
       <c r="R11">
-        <v>1.147379303998189</v>
+        <v>87.76842286704799</v>
       </c>
       <c r="S11">
-        <v>0.006261569110720558</v>
+        <v>0.04445997664635343</v>
       </c>
       <c r="T11">
-        <v>0.006261569110720558</v>
+        <v>0.04445997664635344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H12">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I12">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J12">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N12">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q12">
-        <v>1.184692775576052</v>
+        <v>1.342023608633333</v>
       </c>
       <c r="R12">
-        <v>1.184692775576052</v>
+        <v>12.0782124777</v>
       </c>
       <c r="S12">
-        <v>0.006465199139806449</v>
+        <v>0.006118339912541008</v>
       </c>
       <c r="T12">
-        <v>0.006465199139806449</v>
+        <v>0.006118339912541008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H13">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I13">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J13">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N13">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q13">
-        <v>21.33495062856166</v>
+        <v>22.40177796096577</v>
       </c>
       <c r="R13">
-        <v>21.33495062856166</v>
+        <v>201.616001648692</v>
       </c>
       <c r="S13">
-        <v>0.1164307804481375</v>
+        <v>0.1021306118079673</v>
       </c>
       <c r="T13">
-        <v>0.1164307804481375</v>
+        <v>0.1021306118079673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H14">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I14">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J14">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N14">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q14">
-        <v>0.1403064729999982</v>
+        <v>0.1511362605933333</v>
       </c>
       <c r="R14">
-        <v>0.1403064729999982</v>
+        <v>1.36022634534</v>
       </c>
       <c r="S14">
-        <v>0.0007656915845610583</v>
+        <v>0.0006890363250480168</v>
       </c>
       <c r="T14">
-        <v>0.0007656915845610583</v>
+        <v>0.000689036325048017</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H15">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I15">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J15">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N15">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O15">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P15">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q15">
-        <v>0.1218195045861361</v>
+        <v>0.1421976411537778</v>
       </c>
       <c r="R15">
-        <v>0.1218195045861361</v>
+        <v>1.279778770384</v>
       </c>
       <c r="S15">
-        <v>0.000664803037968197</v>
+        <v>0.0006482847974830572</v>
       </c>
       <c r="T15">
-        <v>0.000664803037968197</v>
+        <v>0.0006482847974830574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H16">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I16">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J16">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N16">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q16">
-        <v>1.732314119255316</v>
+        <v>1.958814451203555</v>
       </c>
       <c r="R16">
-        <v>1.732314119255316</v>
+        <v>17.629330060832</v>
       </c>
       <c r="S16">
-        <v>0.009453721660654342</v>
+        <v>0.008930314311136141</v>
       </c>
       <c r="T16">
-        <v>0.009453721660654342</v>
+        <v>0.008930314311136141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.170010426215553</v>
+        <v>0.2766216666666667</v>
       </c>
       <c r="H17">
-        <v>0.170010426215553</v>
+        <v>0.8298650000000001</v>
       </c>
       <c r="I17">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="J17">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N17">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q17">
-        <v>0.7344725339445113</v>
+        <v>1.289534139041667</v>
       </c>
       <c r="R17">
-        <v>0.7344725339445113</v>
+        <v>11.605807251375</v>
       </c>
       <c r="S17">
-        <v>0.004008221618774178</v>
+        <v>0.005879038297632872</v>
       </c>
       <c r="T17">
-        <v>0.004008221618774178</v>
+        <v>0.005879038297632873</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.170010426215553</v>
+        <v>0.2766216666666667</v>
       </c>
       <c r="H18">
-        <v>0.170010426215553</v>
+        <v>0.8298650000000001</v>
       </c>
       <c r="I18">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="J18">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N18">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q18">
-        <v>13.22700329806712</v>
+        <v>21.52559557824389</v>
       </c>
       <c r="R18">
-        <v>13.22700329806712</v>
+        <v>193.730360204195</v>
       </c>
       <c r="S18">
-        <v>0.07218344882984466</v>
+        <v>0.09813606088622026</v>
       </c>
       <c r="T18">
-        <v>0.07218344882984466</v>
+        <v>0.09813606088622027</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.170010426215553</v>
+        <v>0.2766216666666667</v>
       </c>
       <c r="H19">
-        <v>0.170010426215553</v>
+        <v>0.8298650000000001</v>
       </c>
       <c r="I19">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="J19">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N19">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q19">
-        <v>0.08698563279666968</v>
+        <v>0.1452249918916667</v>
       </c>
       <c r="R19">
-        <v>0.08698563279666968</v>
+        <v>1.307024927025</v>
       </c>
       <c r="S19">
-        <v>0.000474704877016823</v>
+        <v>0.0006620866119442416</v>
       </c>
       <c r="T19">
-        <v>0.000474704877016823</v>
+        <v>0.0006620866119442417</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.170010426215553</v>
+        <v>0.2766216666666667</v>
       </c>
       <c r="H20">
-        <v>0.170010426215553</v>
+        <v>0.8298650000000001</v>
       </c>
       <c r="I20">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="J20">
-        <v>0.08293954473157193</v>
+        <v>0.1138811450073177</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N20">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O20">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P20">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q20">
-        <v>0.07552428955577825</v>
+        <v>0.1366359813488889</v>
       </c>
       <c r="R20">
-        <v>0.07552428955577825</v>
+        <v>1.22972383214</v>
       </c>
       <c r="S20">
-        <v>0.0004121571279381583</v>
+        <v>0.0006229289654803106</v>
       </c>
       <c r="T20">
-        <v>0.0004121571279381583</v>
+        <v>0.0006229289654803107</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J21">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.804242666666666</v>
+      </c>
+      <c r="N21">
+        <v>20.412728</v>
+      </c>
+      <c r="O21">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="P21">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="Q21">
+        <v>1.882200946857778</v>
+      </c>
+      <c r="R21">
+        <v>16.93980852172</v>
+      </c>
+      <c r="S21">
+        <v>0.008581030246040029</v>
+      </c>
+      <c r="T21">
+        <v>0.008581030246040029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.63967</v>
+      </c>
+      <c r="I22">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J22">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.661725</v>
+      </c>
+      <c r="N22">
+        <v>13.985175</v>
+      </c>
+      <c r="O22">
+        <v>0.05162433427636418</v>
+      </c>
+      <c r="P22">
+        <v>0.05162433427636419</v>
+      </c>
+      <c r="Q22">
+        <v>0.9939885435833332</v>
+      </c>
+      <c r="R22">
+        <v>8.94589689225</v>
+      </c>
+      <c r="S22">
+        <v>0.004531633974016036</v>
+      </c>
+      <c r="T22">
+        <v>0.004531633974016037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.63967</v>
+      </c>
+      <c r="I23">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J23">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>77.81601433333333</v>
+      </c>
+      <c r="N23">
+        <v>233.448043</v>
+      </c>
+      <c r="O23">
+        <v>0.8617410799646796</v>
+      </c>
+      <c r="P23">
+        <v>0.8617410799646797</v>
+      </c>
+      <c r="Q23">
+        <v>16.59218996286777</v>
+      </c>
+      <c r="R23">
+        <v>149.32970966581</v>
+      </c>
+      <c r="S23">
+        <v>0.07564446514443733</v>
+      </c>
+      <c r="T23">
+        <v>0.07564446514443736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.63967</v>
+      </c>
+      <c r="I24">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J24">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.524995</v>
+      </c>
+      <c r="N24">
+        <v>1.574985</v>
+      </c>
+      <c r="O24">
+        <v>0.005813838734249621</v>
+      </c>
+      <c r="P24">
+        <v>0.005813838734249622</v>
+      </c>
+      <c r="Q24">
+        <v>0.1119411838833333</v>
+      </c>
+      <c r="R24">
+        <v>1.00747065495</v>
+      </c>
+      <c r="S24">
+        <v>0.0005103443850052393</v>
+      </c>
+      <c r="T24">
+        <v>0.0005103443850052394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.170010426215553</v>
-      </c>
-      <c r="H21">
-        <v>0.170010426215553</v>
-      </c>
-      <c r="I21">
-        <v>0.08293954473157193</v>
-      </c>
-      <c r="J21">
-        <v>0.08293954473157193</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.3171459175915</v>
-      </c>
-      <c r="N21">
-        <v>6.3171459175915</v>
-      </c>
-      <c r="O21">
-        <v>0.07066607728517048</v>
-      </c>
-      <c r="P21">
-        <v>0.07066607728517048</v>
-      </c>
-      <c r="Q21">
-        <v>1.073980669915572</v>
-      </c>
-      <c r="R21">
-        <v>1.073980669915572</v>
-      </c>
-      <c r="S21">
-        <v>0.005861012277998116</v>
-      </c>
-      <c r="T21">
-        <v>0.005861012277998116</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.63967</v>
+      </c>
+      <c r="I25">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J25">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4939453333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.481836</v>
+      </c>
+      <c r="O25">
+        <v>0.005469992117134779</v>
+      </c>
+      <c r="P25">
+        <v>0.00546999211713478</v>
+      </c>
+      <c r="Q25">
+        <v>0.1053206704577778</v>
+      </c>
+      <c r="R25">
+        <v>0.9478860341199999</v>
+      </c>
+      <c r="S25">
+        <v>0.000480161196518458</v>
+      </c>
+      <c r="T25">
+        <v>0.0004801611965184582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.63967</v>
+      </c>
+      <c r="I26">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J26">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.804242666666666</v>
+      </c>
+      <c r="N26">
+        <v>20.412728</v>
+      </c>
+      <c r="O26">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="P26">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="Q26">
+        <v>1.450823302195555</v>
+      </c>
+      <c r="R26">
+        <v>13.05740971976</v>
+      </c>
+      <c r="S26">
+        <v>0.006614362116108552</v>
+      </c>
+      <c r="T26">
+        <v>0.006614362116108553</v>
       </c>
     </row>
   </sheetData>
